--- a/biology/Zoologie/Faucon_des_chauves-souris/Faucon_des_chauves-souris.xlsx
+++ b/biology/Zoologie/Faucon_des_chauves-souris/Faucon_des_chauves-souris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Falco rufigularis
 Le Faucon des chauves-souris (Falco rufigularis) est une espèce de rapaces diurnes appartenant à la famille des Falconidae de l'Amérique latine, du Mexique à l'Argentine.
@@ -512,7 +524,9 @@
           <t>Description et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'âge adulte, les mâles atteignent de 22 à 28 cm et les femelles de 22 à 29 cm.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les forêts tropicales, proche d'un point d'eau. 
 </t>
@@ -574,7 +590,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un rapace solitaire que l'on peut observer en couple.
 </t>
@@ -605,7 +623,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle de ce faucon peut pondre de 2 à 3 œufs de couleur café.
 Ces oiseaux peuvent nicher dans des lieux tranquilles et sûrs afin de protéger leur progéniture ; ils ont l'habitude de nicher dans les creux des arbres, dans des arbustes, dans des constructions abandonnées entre autres.
@@ -637,7 +657,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce s'alimente d'autres oiseaux, mammifères, insectes et de petits reptiles.
 </t>
